--- a/census_occ/references/Check.xlsx
+++ b/census_occ/references/Check.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1txw01/GitHub/concordances/census_occ/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67C7AF8-A4E3-254B-B0E1-54887B654B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE41751-415F-364D-AA7D-7F1C933F59D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{A0188CFE-FFF9-E74D-B376-5B5B44F5D595}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{A0188CFE-FFF9-E74D-B376-5B5B44F5D595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2121,8 +2121,8 @@
   <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F447" sqref="F447"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,7 +2171,7 @@
         <v>1098048</v>
       </c>
       <c r="F3">
-        <f>B3-E3</f>
+        <f t="shared" ref="F3:F34" si="0">B3-E3</f>
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>885352</v>
       </c>
       <c r="F4">
-        <f>B4-E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>11439</v>
       </c>
       <c r="F5">
-        <f>B5-E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>41608</v>
       </c>
       <c r="F6">
-        <f>B6-E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
         <v>441930.72840000002</v>
       </c>
       <c r="F7">
-        <f>B7-E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>421721.27159999998</v>
       </c>
       <c r="F8">
-        <f>B8-E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
         <v>53176</v>
       </c>
       <c r="F9">
-        <f>B9-E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
         <v>51994.088400000001</v>
       </c>
       <c r="F10">
-        <f>B10-E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
         <v>81289.911600000007</v>
       </c>
       <c r="F11">
-        <f>B11-E11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>561466</v>
       </c>
       <c r="F12">
-        <f>B12-E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         <v>1066848</v>
       </c>
       <c r="F13">
-        <f>B13-E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>16470</v>
       </c>
       <c r="F14">
-        <f>B14-E14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
         <v>377342</v>
       </c>
       <c r="F15">
-        <f>B15-E15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>53382</v>
       </c>
       <c r="F16">
-        <f>B16-E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
         <v>233451</v>
       </c>
       <c r="F17">
-        <f>B17-E17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
         <v>185381</v>
       </c>
       <c r="F18">
-        <f>B18-E18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
         <v>221952</v>
       </c>
       <c r="F19">
-        <f>B19-E19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>438396</v>
       </c>
       <c r="F20">
-        <f>B20-E20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
         <v>709029</v>
       </c>
       <c r="F21">
-        <f>B21-E21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
         <v>781769</v>
       </c>
       <c r="F22">
-        <f>B22-E22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>159701</v>
       </c>
       <c r="F23">
-        <f>B23-E23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
         <v>817831</v>
       </c>
       <c r="F24">
-        <f>B24-E24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>6330</v>
       </c>
       <c r="F25">
-        <f>B25-E25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
         <v>65759.731199999995</v>
       </c>
       <c r="F26">
-        <f>B26-E26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
         <v>112715</v>
       </c>
       <c r="F27">
-        <f>B27-E27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>637605</v>
       </c>
       <c r="F28">
-        <f>B28-E28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>20107</v>
       </c>
       <c r="F29">
-        <f>B29-E29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
         <v>22837</v>
       </c>
       <c r="F30">
-        <f>B30-E30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>480187</v>
       </c>
       <c r="F31">
-        <f>B31-E31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>328654</v>
       </c>
       <c r="F32">
-        <f>B32-E32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
         <v>8612</v>
       </c>
       <c r="F33">
-        <f>B33-E33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
         <v>23399.874</v>
       </c>
       <c r="F34">
-        <f>B34-E34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>3281052.3327000001</v>
       </c>
       <c r="F35">
-        <f>B35-E35</f>
+        <f t="shared" ref="F35:F66" si="1">B35-E35</f>
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
         <v>33035</v>
       </c>
       <c r="F36">
-        <f>B36-E36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
         <v>6638</v>
       </c>
       <c r="F37">
-        <f>B37-E37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
         <v>134634</v>
       </c>
       <c r="F38">
-        <f>B38-E38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
         <v>237095</v>
       </c>
       <c r="F39">
-        <f>B39-E39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>296535</v>
       </c>
       <c r="F40">
-        <f>B40-E40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
         <v>248780</v>
       </c>
       <c r="F41">
-        <f>B41-E41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
         <v>119438</v>
       </c>
       <c r="F42">
-        <f>B42-E42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
         <v>711018</v>
       </c>
       <c r="F43">
-        <f>B43-E43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>51568</v>
       </c>
       <c r="F44">
-        <f>B44-E44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
         <v>103451</v>
       </c>
       <c r="F45">
-        <f>B45-E45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>127430</v>
       </c>
       <c r="F46">
-        <f>B46-E46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         <v>568199.79280000005</v>
       </c>
       <c r="F47">
-        <f>B47-E47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>665500</v>
       </c>
       <c r="F48">
-        <f>B48-E48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
         <v>91655</v>
       </c>
       <c r="F49">
-        <f>B49-E49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
         <v>80259</v>
       </c>
       <c r="F50">
-        <f>B50-E50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
         <v>255502</v>
       </c>
       <c r="F51">
-        <f>B51-E51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
         <v>245358.4325</v>
       </c>
       <c r="F52">
-        <f>B52-E52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>1692991</v>
       </c>
       <c r="F53">
-        <f>B53-E53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
         <v>72566</v>
       </c>
       <c r="F54">
-        <f>B54-E54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
         <v>41211</v>
       </c>
       <c r="F55">
-        <f>B55-E55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         <v>25288</v>
       </c>
       <c r="F56">
-        <f>B56-E56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
         <v>198584.71489999999</v>
       </c>
       <c r="F57">
-        <f>B57-E57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         <v>338453</v>
       </c>
       <c r="F58">
-        <f>B58-E58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
         <v>95107</v>
       </c>
       <c r="F59">
-        <f>B59-E59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>12334</v>
       </c>
       <c r="F60">
-        <f>B60-E60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
         <v>284846</v>
       </c>
       <c r="F61">
-        <f>B61-E61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
         <v>44684</v>
       </c>
       <c r="F62">
-        <f>B62-E62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
         <v>51718</v>
       </c>
       <c r="F63">
-        <f>B63-E63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         <v>43246.285100000001</v>
       </c>
       <c r="F64">
-        <f>B64-E64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
         <v>22129</v>
       </c>
       <c r="F65">
-        <f>B65-E65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
         <v>478879</v>
       </c>
       <c r="F66">
-        <f>B66-E66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>87834</v>
       </c>
       <c r="F67">
-        <f>B67-E67</f>
+        <f t="shared" ref="F67:F98" si="2">B67-E67</f>
         <v>0</v>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
         <v>371952</v>
       </c>
       <c r="F68">
-        <f>B68-E68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
         <v>1088823.3972</v>
       </c>
       <c r="F69">
-        <f>B69-E69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
         <v>132656.39600000001</v>
       </c>
       <c r="F70">
-        <f>B70-E70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
         <v>97004.268299999996</v>
       </c>
       <c r="F71">
-        <f>B71-E71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
         <v>49718.778200000001</v>
       </c>
       <c r="F72">
-        <f>B72-E72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
         <v>562145</v>
       </c>
       <c r="F73">
-        <f>B73-E73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
         <v>108412.019</v>
       </c>
       <c r="F74">
-        <f>B74-E74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
         <v>195283</v>
       </c>
       <c r="F75">
-        <f>B75-E75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
         <v>92409</v>
       </c>
       <c r="F76">
-        <f>B76-E76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
         <v>658014.97809999995</v>
       </c>
       <c r="F77">
-        <f>B77-E77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
         <v>26642</v>
       </c>
       <c r="F78">
-        <f>B78-E78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>3065</v>
       </c>
       <c r="F79">
-        <f>B79-E79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>131050</v>
       </c>
       <c r="F80">
-        <f>B80-E80</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
         <v>47971</v>
       </c>
       <c r="F81">
-        <f>B81-E81</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>3502</v>
       </c>
       <c r="F82">
-        <f>B82-E82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
         <v>143402.19219999999</v>
       </c>
       <c r="F83">
-        <f>B83-E83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>25963.807799999999</v>
       </c>
       <c r="F84">
-        <f>B84-E84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>27850</v>
       </c>
       <c r="F85">
-        <f>B85-E85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
         <v>123484</v>
       </c>
       <c r="F86">
-        <f>B86-E86</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>2216</v>
       </c>
       <c r="F87">
-        <f>B87-E87</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
         <v>12898</v>
       </c>
       <c r="F88">
-        <f>B88-E88</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>53133</v>
       </c>
       <c r="F89">
-        <f>B89-E89</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
         <v>317670</v>
       </c>
       <c r="F90">
-        <f>B90-E90</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
         <v>44685</v>
       </c>
       <c r="F91">
-        <f>B91-E91</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>196331</v>
       </c>
       <c r="F92">
-        <f>B92-E92</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
         <v>24102</v>
       </c>
       <c r="F93">
-        <f>B93-E93</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
         <v>197550</v>
       </c>
       <c r="F94">
-        <f>B94-E94</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>12874</v>
       </c>
       <c r="F95">
-        <f>B95-E95</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>40500</v>
       </c>
       <c r="F96">
-        <f>B96-E96</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
         <v>237908</v>
       </c>
       <c r="F97">
-        <f>B97-E97</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
         <v>7189</v>
       </c>
       <c r="F98">
-        <f>B98-E98</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>5675</v>
       </c>
       <c r="F99">
-        <f>B99-E99</f>
+        <f t="shared" ref="F99:F130" si="3">B99-E99</f>
         <v>0</v>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
         <v>20608</v>
       </c>
       <c r="F100">
-        <f>B100-E100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
         <v>483758</v>
       </c>
       <c r="F101">
-        <f>B101-E101</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>46212.662600000003</v>
       </c>
       <c r="F102">
-        <f>B102-E102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
         <v>90430.337400000004</v>
       </c>
       <c r="F103">
-        <f>B103-E103</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
         <v>96778.283200000005</v>
       </c>
       <c r="F104">
-        <f>B104-E104</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
         <v>233297.71679999999</v>
       </c>
       <c r="F105">
-        <f>B105-E105</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>48988</v>
       </c>
       <c r="F106">
-        <f>B106-E106</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
         <v>22484</v>
       </c>
       <c r="F107">
-        <f>B107-E107</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>73165</v>
       </c>
       <c r="F108">
-        <f>B108-E108</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
         <v>17170</v>
       </c>
       <c r="F109">
-        <f>B109-E109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
         <v>117204</v>
       </c>
       <c r="F110">
-        <f>B110-E110</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>2540</v>
       </c>
       <c r="F111">
-        <f>B111-E111</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>9844</v>
       </c>
       <c r="F112">
-        <f>B112-E112</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
         <v>11183</v>
       </c>
       <c r="F113">
-        <f>B113-E113</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>76920</v>
       </c>
       <c r="F114">
-        <f>B114-E114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
         <v>24309.885600000001</v>
       </c>
       <c r="F115">
-        <f>B115-E115</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>36404.114399999999</v>
       </c>
       <c r="F116">
-        <f>B116-E116</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
         <v>201464</v>
       </c>
       <c r="F117">
-        <f>B117-E117</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
         <v>24282</v>
       </c>
       <c r="F118">
-        <f>B118-E118</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
         <v>1621</v>
       </c>
       <c r="F119">
-        <f>B119-E119</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>20502.739699999998</v>
       </c>
       <c r="F120">
-        <f>B120-E120</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
         <v>26404.848300000001</v>
       </c>
       <c r="F121">
-        <f>B121-E121</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4670,7 +4670,7 @@
         <v>81959.411999999997</v>
       </c>
       <c r="F122">
-        <f>B122-E122</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>22975</v>
       </c>
       <c r="F123">
-        <f>B123-E123</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>19850</v>
       </c>
       <c r="F124">
-        <f>B124-E124</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
         <v>32481</v>
       </c>
       <c r="F125">
-        <f>B125-E125</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>16847</v>
       </c>
       <c r="F126">
-        <f>B126-E126</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
         <v>56912</v>
       </c>
       <c r="F127">
-        <f>B127-E127</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
         <v>28370.7372</v>
       </c>
       <c r="F128">
-        <f>B128-E128</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
         <v>3573</v>
       </c>
       <c r="F129">
-        <f>B129-E129</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
         <v>3301</v>
       </c>
       <c r="F130">
-        <f>B130-E130</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
         <v>115273.2628</v>
       </c>
       <c r="F131">
-        <f>B131-E131</f>
+        <f t="shared" ref="F131:F162" si="4">B131-E131</f>
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>51221.773200000003</v>
       </c>
       <c r="F132">
-        <f>B132-E132</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
         <v>49215.305999999997</v>
       </c>
       <c r="F133">
-        <f>B133-E133</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
         <v>254374.4595</v>
       </c>
       <c r="F134">
-        <f>B134-E134</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
         <v>26438.9202</v>
       </c>
       <c r="F135">
-        <f>B135-E135</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
         <v>69759.834900000002</v>
       </c>
       <c r="F136">
-        <f>B136-E136</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
         <v>23806.473600000001</v>
       </c>
       <c r="F137">
-        <f>B137-E137</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>148676.00580000001</v>
       </c>
       <c r="F138">
-        <f>B138-E138</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
         <v>110756.334</v>
       </c>
       <c r="F139">
-        <f>B139-E139</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>93211.490999999995</v>
       </c>
       <c r="F140">
-        <f>B140-E140</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
         <v>33790.067999999999</v>
       </c>
       <c r="F141">
-        <f>B141-E141</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>484252.10700000002</v>
       </c>
       <c r="F142">
-        <f>B142-E142</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
         <v>80114</v>
       </c>
       <c r="F143">
-        <f>B143-E143</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
         <v>153684</v>
       </c>
       <c r="F144">
-        <f>B144-E144</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>64940</v>
       </c>
       <c r="F145">
-        <f>B145-E145</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
         <v>345976</v>
       </c>
       <c r="F146">
-        <f>B146-E146</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
         <v>49074</v>
       </c>
       <c r="F147">
-        <f>B147-E147</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
         <v>41676</v>
       </c>
       <c r="F148">
-        <f>B148-E148</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
         <v>888694</v>
       </c>
       <c r="F149">
-        <f>B149-E149</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
         <v>11427</v>
       </c>
       <c r="F150">
-        <f>B150-E150</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
         <v>60833</v>
       </c>
       <c r="F151">
-        <f>B151-E151</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
         <v>317045</v>
       </c>
       <c r="F152">
-        <f>B152-E152</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
         <v>67255.245800000004</v>
       </c>
       <c r="F153">
-        <f>B153-E153</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
         <v>33249.925900000002</v>
       </c>
       <c r="F154">
-        <f>B154-E154</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>856795.69799999997</v>
       </c>
       <c r="F155">
-        <f>B155-E155</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
         <v>356867</v>
       </c>
       <c r="F156">
-        <f>B156-E156</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
         <v>2480384</v>
       </c>
       <c r="F157">
-        <f>B157-E157</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
         <v>511675</v>
       </c>
       <c r="F158">
-        <f>B158-E158</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
         <v>178048</v>
       </c>
       <c r="F159">
-        <f>B159-E159</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
         <v>103394.682</v>
       </c>
       <c r="F160">
-        <f>B160-E160</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
         <v>283851.31800000003</v>
       </c>
       <c r="F161">
-        <f>B161-E161</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>35788</v>
       </c>
       <c r="F162">
-        <f>B162-E162</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
         <v>112154.30220000001</v>
       </c>
       <c r="F163">
-        <f>B163-E163</f>
+        <f t="shared" ref="F163:F194" si="5">B163-E163</f>
         <v>0</v>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
         <v>16144</v>
       </c>
       <c r="F164">
-        <f>B164-E164</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
         <v>513136.30200000003</v>
       </c>
       <c r="F165">
-        <f>B165-E165</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
         <v>80348.697799999994</v>
       </c>
       <c r="F166">
-        <f>B166-E166</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>125078</v>
       </c>
       <c r="F167">
-        <f>B167-E167</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>16347.65</v>
       </c>
       <c r="F168">
-        <f>B168-E168</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
         <v>20859.6014</v>
       </c>
       <c r="F169">
-        <f>B169-E169</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
         <v>57674.5092</v>
       </c>
       <c r="F170">
-        <f>B170-E170</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
         <v>225009.0546</v>
       </c>
       <c r="F171">
-        <f>B171-E171</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
         <v>70425.676200000002</v>
       </c>
       <c r="F172">
-        <f>B172-E172</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
         <v>10331.7148</v>
       </c>
       <c r="F173">
-        <f>B173-E173</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
         <v>253323.1844</v>
       </c>
       <c r="F174">
-        <f>B174-E174</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
         <v>13619</v>
       </c>
       <c r="F175">
-        <f>B175-E175</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
         <v>131754</v>
       </c>
       <c r="F176">
-        <f>B176-E176</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         <v>11804.512000000001</v>
       </c>
       <c r="F177">
-        <f>B177-E177</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
         <v>89483.068799999994</v>
       </c>
       <c r="F178">
-        <f>B178-E178</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
         <v>20408.4192</v>
       </c>
       <c r="F179">
-        <f>B179-E179</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
         <v>7258</v>
       </c>
       <c r="F180">
-        <f>B180-E180</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
         <v>14932.454400000001</v>
       </c>
       <c r="F181">
-        <f>B181-E181</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
         <v>49878.545599999998</v>
       </c>
       <c r="F182">
-        <f>B182-E182</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
         <v>61.509599999999999</v>
       </c>
       <c r="F183">
-        <f>B183-E183</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
         <v>17024.490399999999</v>
       </c>
       <c r="F184">
-        <f>B184-E184</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
         <v>21487.679</v>
       </c>
       <c r="F185">
-        <f>B185-E185</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
         <v>54388</v>
       </c>
       <c r="F186">
-        <f>B186-E186</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
         <v>107893</v>
       </c>
       <c r="F187">
-        <f>B187-E187</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
         <v>121098</v>
       </c>
       <c r="F188">
-        <f>B188-E188</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
         <v>45442</v>
       </c>
       <c r="F189">
-        <f>B189-E189</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
         <v>143705</v>
       </c>
       <c r="F190">
-        <f>B190-E190</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
         <v>61964.051099999997</v>
       </c>
       <c r="F191">
-        <f>B191-E191</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
         <v>25393.828300000001</v>
       </c>
       <c r="F192">
-        <f>B192-E192</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
         <v>9031.2698999999993</v>
       </c>
       <c r="F193">
-        <f>B193-E193</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,11 +6179,11 @@
         <v>562</v>
       </c>
       <c r="E194" s="3">
-        <v>141517.33439999999</v>
+        <v>74935.833599999998</v>
       </c>
       <c r="F194">
-        <f t="shared" ref="F194:F257" si="0">B194-E194</f>
-        <v>-79113.334399999992</v>
+        <f t="shared" ref="F194:F257" si="6">B194-E194</f>
+        <v>-12531.833599999998</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -6203,7 +6203,7 @@
         <v>87173</v>
       </c>
       <c r="F195">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
         <v>44662</v>
       </c>
       <c r="F196">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
         <v>39928</v>
       </c>
       <c r="F197">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
         <v>94693</v>
       </c>
       <c r="F198">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
         <v>71289</v>
       </c>
       <c r="F199">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
         <v>26632</v>
       </c>
       <c r="F200">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
         <v>210886</v>
       </c>
       <c r="F201">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
         <v>14571.905699999999</v>
       </c>
       <c r="F202">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
         <v>18768.004199999999</v>
       </c>
       <c r="F203">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>690143.76419999998</v>
       </c>
       <c r="F204">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
         <v>39443.325900000003</v>
       </c>
       <c r="F205">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
         <v>80941</v>
       </c>
       <c r="F206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
         <v>6762</v>
       </c>
       <c r="F207">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
         <v>13420</v>
       </c>
       <c r="F208">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
         <v>68794</v>
       </c>
       <c r="F209">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
         <v>169495</v>
       </c>
       <c r="F210">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
         <v>16601</v>
       </c>
       <c r="F211">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
         <v>9248</v>
       </c>
       <c r="F212">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
         <v>88350</v>
       </c>
       <c r="F213">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
         <v>99885</v>
       </c>
       <c r="F214">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
         <v>123114</v>
       </c>
       <c r="F215">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>62715</v>
       </c>
       <c r="F216">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
         <v>2396467</v>
       </c>
       <c r="F217">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
         <v>24079</v>
       </c>
       <c r="F218">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
         <v>3279</v>
       </c>
       <c r="F219">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6728,7 +6728,7 @@
         <v>139295</v>
       </c>
       <c r="F220">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
         <v>11140.875</v>
       </c>
       <c r="F221">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
         <v>5364.125</v>
       </c>
       <c r="F222">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
         <v>248936</v>
       </c>
       <c r="F223">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
         <v>80259</v>
       </c>
       <c r="F224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
         <v>23788.377</v>
       </c>
       <c r="F225">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
         <v>57921.998</v>
       </c>
       <c r="F226">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
         <v>163392.329</v>
       </c>
       <c r="F227">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
         <v>25578.9</v>
       </c>
       <c r="F228">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
         <v>13556.816999999999</v>
       </c>
       <c r="F229">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6938,7 +6938,7 @@
         <v>86164.612200000003</v>
       </c>
       <c r="F230">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
         <v>73222.387799999997</v>
       </c>
       <c r="F231">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
         <v>260644.38399999999</v>
       </c>
       <c r="F232">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
         <v>25563.199199999999</v>
       </c>
       <c r="F233">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
         <v>66892.649600000004</v>
       </c>
       <c r="F234">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
         <v>83433.5432</v>
       </c>
       <c r="F235">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +7064,7 @@
         <v>10753.859200000001</v>
       </c>
       <c r="F236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
         <v>610860</v>
       </c>
       <c r="F237">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
         <v>153611</v>
       </c>
       <c r="F238">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
         <v>44245</v>
       </c>
       <c r="F239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
         <v>123161.79760000001</v>
       </c>
       <c r="F240">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
         <v>59265.226799999997</v>
       </c>
       <c r="F241">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
         <v>268228.75550000003</v>
       </c>
       <c r="F242">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
         <v>716208</v>
       </c>
       <c r="F243">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
         <v>939858.62309999997</v>
       </c>
       <c r="F244">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
         <v>36593.621400000004</v>
       </c>
       <c r="F245">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
         <v>16092</v>
       </c>
       <c r="F246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
         <v>56275</v>
       </c>
       <c r="F247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
         <v>65506</v>
       </c>
       <c r="F248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
         <v>176166</v>
       </c>
       <c r="F249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         <v>393011</v>
       </c>
       <c r="F250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
         <v>23318</v>
       </c>
       <c r="F251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
         <v>25924</v>
       </c>
       <c r="F252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
         <v>33490</v>
       </c>
       <c r="F253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
         <v>82191</v>
       </c>
       <c r="F254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7463,7 +7463,7 @@
         <v>99752</v>
       </c>
       <c r="F255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7484,7 +7484,7 @@
         <v>50463</v>
       </c>
       <c r="F256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
         <v>105612</v>
       </c>
       <c r="F257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
         <v>49186</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F321" si="1">B258-E258</f>
+        <f t="shared" ref="F258:F321" si="7">B258-E258</f>
         <v>0</v>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
         <v>54608.120300000002</v>
       </c>
       <c r="F259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
         <v>15844.8797</v>
       </c>
       <c r="F260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
         <v>264896</v>
       </c>
       <c r="F261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         <v>19480</v>
       </c>
       <c r="F262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
         <v>28230.240900000001</v>
       </c>
       <c r="F263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>330476.75910000002</v>
       </c>
       <c r="F264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7673,7 +7673,7 @@
         <v>114691</v>
       </c>
       <c r="F265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
         <v>3957</v>
       </c>
       <c r="F266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
         <v>6908</v>
       </c>
       <c r="F267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
         <v>709650</v>
       </c>
       <c r="F268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
         <v>7761</v>
       </c>
       <c r="F269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
         <v>80139</v>
       </c>
       <c r="F270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
         <v>668744</v>
       </c>
       <c r="F271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7820,7 +7820,7 @@
         <v>11810</v>
       </c>
       <c r="F272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
         <v>34738</v>
       </c>
       <c r="F273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
         <v>586.23599999999999</v>
       </c>
       <c r="F274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
         <v>23341.763999999999</v>
       </c>
       <c r="F275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
         <v>354511</v>
       </c>
       <c r="F276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
         <v>428906</v>
       </c>
       <c r="F277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>1213155</v>
       </c>
       <c r="F278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
         <v>361738</v>
       </c>
       <c r="F279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
         <v>219856</v>
       </c>
       <c r="F280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
         <v>178250</v>
       </c>
       <c r="F281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
         <v>752543</v>
       </c>
       <c r="F282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
         <v>75048</v>
       </c>
       <c r="F283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
         <v>86467</v>
       </c>
       <c r="F284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
         <v>110647</v>
       </c>
       <c r="F285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>49771</v>
       </c>
       <c r="F286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
         <v>6391</v>
       </c>
       <c r="F287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
         <v>197925</v>
       </c>
       <c r="F288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
         <v>127276</v>
       </c>
       <c r="F289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
         <v>1602334</v>
       </c>
       <c r="F290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
         <v>786916</v>
       </c>
       <c r="F291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
         <v>71321</v>
       </c>
       <c r="F292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         <v>699849.56799999997</v>
       </c>
       <c r="F293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
         <v>53391.904000000002</v>
       </c>
       <c r="F294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
         <v>45958.6</v>
       </c>
       <c r="F295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
         <v>90719.7834</v>
       </c>
       <c r="F296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
         <v>31498</v>
       </c>
       <c r="F297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
         <v>124837</v>
       </c>
       <c r="F298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
         <v>66544</v>
       </c>
       <c r="F299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
         <v>6506</v>
       </c>
       <c r="F300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
         <v>55845</v>
       </c>
       <c r="F301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8450,7 +8450,7 @@
         <v>6785.6684999999998</v>
       </c>
       <c r="F302">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
         <v>31465</v>
       </c>
       <c r="F303">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +8492,7 @@
         <v>74451</v>
       </c>
       <c r="F304">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
         <v>437356</v>
       </c>
       <c r="F305">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>138319.79319999999</v>
       </c>
       <c r="F306">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
         <v>37235.5196</v>
       </c>
       <c r="F307">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
         <v>16163.5134</v>
       </c>
       <c r="F308">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8597,7 +8597,7 @@
         <v>69575</v>
       </c>
       <c r="F309">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
         <v>19036</v>
       </c>
       <c r="F310">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
         <v>537110</v>
       </c>
       <c r="F311">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>79060.1535</v>
       </c>
       <c r="F312">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
         <v>107182.8465</v>
       </c>
       <c r="F313">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8702,7 +8702,7 @@
         <v>26883</v>
       </c>
       <c r="F314">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
         <v>81060.3315</v>
       </c>
       <c r="F315">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
         <v>2693008</v>
       </c>
       <c r="F316">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
         <v>1119323</v>
       </c>
       <c r="F317">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
         <v>1017176</v>
       </c>
       <c r="F318">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
         <v>44808</v>
       </c>
       <c r="F319">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
         <v>87054</v>
       </c>
       <c r="F320">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
         <v>1684365</v>
       </c>
       <c r="F321">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>131371</v>
       </c>
       <c r="F322">
-        <f t="shared" ref="F322:F385" si="2">B322-E322</f>
+        <f t="shared" ref="F322:F385" si="8">B322-E322</f>
         <v>0</v>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
         <v>453892</v>
       </c>
       <c r="F323">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
         <v>204326</v>
       </c>
       <c r="F324">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8933,7 +8933,7 @@
         <v>47354</v>
       </c>
       <c r="F325">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
         <v>552560</v>
       </c>
       <c r="F326">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
         <v>1183813</v>
       </c>
       <c r="F327">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
         <v>14331</v>
       </c>
       <c r="F328">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
         <v>593173</v>
       </c>
       <c r="F329">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
         <v>34785</v>
       </c>
       <c r="F330">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
         <v>30173</v>
       </c>
       <c r="F331">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9080,7 +9080,7 @@
         <v>46425</v>
       </c>
       <c r="F332">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
         <v>195122</v>
       </c>
       <c r="F333">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
         <v>1203016</v>
       </c>
       <c r="F334">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
         <v>16429</v>
       </c>
       <c r="F335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
         <v>31805</v>
       </c>
       <c r="F336">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
         <v>24317.6656</v>
       </c>
       <c r="F337">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
         <v>122378</v>
       </c>
       <c r="F338">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9227,7 +9227,7 @@
         <v>407686</v>
       </c>
       <c r="F339">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
         <v>842584</v>
       </c>
       <c r="F340">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
         <v>4972</v>
       </c>
       <c r="F341">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9290,7 +9290,7 @@
         <v>132538</v>
       </c>
       <c r="F342">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9311,7 +9311,7 @@
         <v>33963</v>
       </c>
       <c r="F343">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>203015</v>
       </c>
       <c r="F344">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
         <v>115603</v>
       </c>
       <c r="F345">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9374,7 +9374,7 @@
         <v>6605</v>
       </c>
       <c r="F346">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
         <v>2471</v>
       </c>
       <c r="F347">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
         <v>61922</v>
       </c>
       <c r="F348">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9437,7 +9437,7 @@
         <v>38525</v>
       </c>
       <c r="F349">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9458,7 +9458,7 @@
         <v>1836583</v>
       </c>
       <c r="F350">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
         <v>64653</v>
       </c>
       <c r="F351">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
         <v>124102</v>
       </c>
       <c r="F352">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
         <v>86663</v>
       </c>
       <c r="F353">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9542,7 +9542,7 @@
         <v>85368</v>
       </c>
       <c r="F354">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9563,7 +9563,7 @@
         <v>36328</v>
       </c>
       <c r="F355">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
         <v>111534</v>
       </c>
       <c r="F356">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
         <v>14112</v>
       </c>
       <c r="F357">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
         <v>91990</v>
       </c>
       <c r="F358">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
         <v>41006</v>
       </c>
       <c r="F359">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9668,7 +9668,7 @@
         <v>691046</v>
       </c>
       <c r="F360">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
         <v>97194</v>
       </c>
       <c r="F361">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9710,7 +9710,7 @@
         <v>78742</v>
       </c>
       <c r="F362">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
         <v>22352</v>
       </c>
       <c r="F363">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
         <v>153472</v>
       </c>
       <c r="F364">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
         <v>82982.538199999995</v>
       </c>
       <c r="F365">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9794,7 +9794,7 @@
         <v>166139.46179999999</v>
       </c>
       <c r="F366">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
         <v>20732</v>
       </c>
       <c r="F367">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
         <v>92916</v>
       </c>
       <c r="F368">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
         <v>276073</v>
       </c>
       <c r="F369">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
         <v>58192</v>
       </c>
       <c r="F370">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
         <v>282146</v>
       </c>
       <c r="F371">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
         <v>458469</v>
       </c>
       <c r="F372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
         <v>66649</v>
       </c>
       <c r="F373">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9962,7 +9962,7 @@
         <v>140576.30040000001</v>
       </c>
       <c r="F374">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
         <v>60653.6374</v>
       </c>
       <c r="F375">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
         <v>71601.947400000005</v>
       </c>
       <c r="F376">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10025,7 +10025,7 @@
         <v>1916830.1148000001</v>
       </c>
       <c r="F377">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
         <v>223130</v>
       </c>
       <c r="F378">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
         <v>186327</v>
       </c>
       <c r="F379">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
         <v>1475</v>
       </c>
       <c r="F380">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
         <v>321692</v>
       </c>
       <c r="F381">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
         <v>49359</v>
       </c>
       <c r="F382">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
         <v>901683</v>
       </c>
       <c r="F383">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10172,7 +10172,7 @@
         <v>24718</v>
       </c>
       <c r="F384">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
         <v>6550</v>
       </c>
       <c r="F385">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
         <v>22427</v>
       </c>
       <c r="F386">
-        <f t="shared" ref="F386:F449" si="3">B386-E386</f>
+        <f t="shared" ref="F386:F449" si="9">B386-E386</f>
         <v>0</v>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
         <v>439950</v>
       </c>
       <c r="F387">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
         <v>47294</v>
       </c>
       <c r="F388">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10277,7 +10277,7 @@
         <v>9462</v>
       </c>
       <c r="F389">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
         <v>2563</v>
       </c>
       <c r="F390">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
         <v>37019</v>
       </c>
       <c r="F391">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
         <v>493053</v>
       </c>
       <c r="F392">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
         <v>18604</v>
       </c>
       <c r="F393">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
         <v>10346</v>
       </c>
       <c r="F394">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
         <v>36533</v>
       </c>
       <c r="F395">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
         <v>730631</v>
       </c>
       <c r="F396">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
         <v>12237</v>
       </c>
       <c r="F397">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
         <v>92826</v>
       </c>
       <c r="F398">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
         <v>915998</v>
       </c>
       <c r="F399">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
         <v>110577</v>
       </c>
       <c r="F400">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
         <v>46830</v>
       </c>
       <c r="F401">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
         <v>1279421</v>
       </c>
       <c r="F402">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
         <v>279501</v>
       </c>
       <c r="F403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10592,7 +10592,7 @@
         <v>109053</v>
       </c>
       <c r="F404">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
         <v>708412</v>
       </c>
       <c r="F405">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
         <v>39119</v>
       </c>
       <c r="F406">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
         <v>36047</v>
       </c>
       <c r="F407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10676,7 +10676,7 @@
         <v>403308</v>
       </c>
       <c r="F408">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
         <v>45737.138400000003</v>
       </c>
       <c r="F409">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10718,7 +10718,7 @@
         <v>434190.8616</v>
       </c>
       <c r="F410">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
         <v>16992</v>
       </c>
       <c r="F411">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
         <v>4831</v>
       </c>
       <c r="F412">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
         <v>150660</v>
       </c>
       <c r="F413">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
         <v>98878</v>
       </c>
       <c r="F414">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
         <v>49348</v>
       </c>
       <c r="F415">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
         <v>26537</v>
       </c>
       <c r="F416">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
         <v>78867</v>
       </c>
       <c r="F417">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
         <v>23542</v>
       </c>
       <c r="F418">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
         <v>21700</v>
       </c>
       <c r="F419">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
         <v>27627</v>
       </c>
       <c r="F420">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10949,7 +10949,7 @@
         <v>83209</v>
       </c>
       <c r="F421">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
         <v>7508</v>
       </c>
       <c r="F422">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
         <v>7458</v>
       </c>
       <c r="F423">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11012,7 +11012,7 @@
         <v>41911</v>
       </c>
       <c r="F424">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
         <v>18577</v>
       </c>
       <c r="F425">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
         <v>11570.328</v>
       </c>
       <c r="F426">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
         <v>19212.434700000002</v>
       </c>
       <c r="F427">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
         <v>7417.5653000000002</v>
       </c>
       <c r="F428">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11117,7 +11117,7 @@
         <v>35773.312400000003</v>
       </c>
       <c r="F429">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
         <v>5365</v>
       </c>
       <c r="F430">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
         <v>56880.583599999998</v>
       </c>
       <c r="F431">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
         <v>239714</v>
       </c>
       <c r="F432">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
         <v>134991</v>
       </c>
       <c r="F433">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11222,7 +11222,7 @@
         <v>120104</v>
       </c>
       <c r="F434">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
         <v>12304</v>
       </c>
       <c r="F435">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
         <v>20180</v>
       </c>
       <c r="F436">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
         <v>1609</v>
       </c>
       <c r="F437">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
         <v>10025</v>
       </c>
       <c r="F438">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11327,7 +11327,7 @@
         <v>6671</v>
       </c>
       <c r="F439">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
         <v>30089</v>
       </c>
       <c r="F440">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
         <v>49457</v>
       </c>
       <c r="F441">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11390,7 +11390,7 @@
         <v>153320</v>
       </c>
       <c r="F442">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
         <v>118567</v>
       </c>
       <c r="F443">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11432,7 +11432,7 @@
         <v>16307</v>
       </c>
       <c r="F444">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
         <v>729510</v>
       </c>
       <c r="F445">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
         <v>257847</v>
       </c>
       <c r="F446">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
         <v>185480</v>
       </c>
       <c r="F447">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
         <v>31400</v>
       </c>
       <c r="F448">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
         <v>58823</v>
       </c>
       <c r="F449">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
         <v>19283</v>
       </c>
       <c r="F450">
-        <f t="shared" ref="F450:F513" si="4">B450-E450</f>
+        <f t="shared" ref="F450:F513" si="10">B450-E450</f>
         <v>0</v>
       </c>
     </row>
@@ -11579,7 +11579,7 @@
         <v>348477</v>
       </c>
       <c r="F451">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
         <v>36832</v>
       </c>
       <c r="F452">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
         <v>337283</v>
       </c>
       <c r="F453">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11642,7 +11642,7 @@
         <v>449315</v>
       </c>
       <c r="F454">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
         <v>23942</v>
       </c>
       <c r="F455">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11684,7 +11684,7 @@
         <v>34547</v>
       </c>
       <c r="F456">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
         <v>100961</v>
       </c>
       <c r="F457">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
         <v>131557</v>
       </c>
       <c r="F458">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
         <v>49377</v>
       </c>
       <c r="F459">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
         <v>202577</v>
       </c>
       <c r="F460">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
         <v>26670</v>
       </c>
       <c r="F461">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
         <v>2218</v>
       </c>
       <c r="F462">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
         <v>18561</v>
       </c>
       <c r="F463">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11852,7 +11852,7 @@
         <v>3460</v>
       </c>
       <c r="F464">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11873,7 +11873,7 @@
         <v>12369</v>
       </c>
       <c r="F465">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
         <v>11404</v>
       </c>
       <c r="F466">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11915,7 +11915,7 @@
         <v>852644</v>
       </c>
       <c r="F467">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
         <v>5094</v>
       </c>
       <c r="F468">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
         <v>99081</v>
       </c>
       <c r="F469">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
         <v>8428</v>
       </c>
       <c r="F470">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
         <v>21214</v>
       </c>
       <c r="F471">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
         <v>812138</v>
       </c>
       <c r="F472">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
         <v>148290</v>
       </c>
       <c r="F473">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12062,7 +12062,7 @@
         <v>208070</v>
       </c>
       <c r="F474">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
         <v>6138</v>
       </c>
       <c r="F475">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12104,7 +12104,7 @@
         <v>54457</v>
       </c>
       <c r="F476">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
         <v>6798</v>
       </c>
       <c r="F477">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
         <v>112774</v>
       </c>
       <c r="F478">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
         <v>145980.9847</v>
       </c>
       <c r="F479">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
         <v>25564</v>
       </c>
       <c r="F480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
         <v>68488</v>
       </c>
       <c r="F481">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12230,7 +12230,7 @@
         <v>37882</v>
       </c>
       <c r="F482">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
         <v>11793</v>
       </c>
       <c r="F483">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
         <v>309105</v>
       </c>
       <c r="F484">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
         <v>20729</v>
       </c>
       <c r="F485">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12314,7 +12314,7 @@
         <v>4719</v>
       </c>
       <c r="F486">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12335,7 +12335,7 @@
         <v>34703</v>
       </c>
       <c r="F487">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12356,7 +12356,7 @@
         <v>50913</v>
       </c>
       <c r="F488">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
         <v>505665</v>
       </c>
       <c r="F489">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
         <v>365785</v>
       </c>
       <c r="F490">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
         <v>19996</v>
       </c>
       <c r="F491">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
         <v>157101</v>
       </c>
       <c r="F492">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
         <v>107437</v>
       </c>
       <c r="F493">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
         <v>23521</v>
       </c>
       <c r="F494">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12503,7 +12503,7 @@
         <v>127056</v>
       </c>
       <c r="F495">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12524,7 +12524,7 @@
         <v>10597</v>
       </c>
       <c r="F496">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
         <v>44236</v>
       </c>
       <c r="F497">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
         <v>20493</v>
       </c>
       <c r="F498">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
         <v>24402</v>
       </c>
       <c r="F499">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
         <v>15142</v>
       </c>
       <c r="F500">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
         <v>45404</v>
       </c>
       <c r="F501">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
         <v>8688</v>
       </c>
       <c r="F502">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
         <v>24130</v>
       </c>
       <c r="F503">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
         <v>16253</v>
       </c>
       <c r="F504">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
         <v>20478</v>
       </c>
       <c r="F505">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
         <v>44532</v>
       </c>
       <c r="F506">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
         <v>71365</v>
       </c>
       <c r="F507">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
         <v>82212</v>
       </c>
       <c r="F508">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
         <v>45578</v>
       </c>
       <c r="F509">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
         <v>56539</v>
       </c>
       <c r="F510">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
         <v>72186</v>
       </c>
       <c r="F511">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12860,7 +12860,7 @@
         <v>48139</v>
       </c>
       <c r="F512">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
         <v>25714</v>
       </c>
       <c r="F513">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12902,7 +12902,7 @@
         <v>9506</v>
       </c>
       <c r="F514">
-        <f t="shared" ref="F514:F561" si="5">B514-E514</f>
+        <f t="shared" ref="F514:F561" si="11">B514-E514</f>
         <v>0</v>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
         <v>668310</v>
       </c>
       <c r="F515">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12944,7 +12944,7 @@
         <v>20395</v>
       </c>
       <c r="F516">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
         <v>60812</v>
       </c>
       <c r="F517">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
         <v>213335</v>
       </c>
       <c r="F518">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13007,7 +13007,7 @@
         <v>126613</v>
       </c>
       <c r="F519">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
         <v>18756</v>
       </c>
       <c r="F520">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
         <v>7962</v>
       </c>
       <c r="F521">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
         <v>8062</v>
       </c>
       <c r="F522">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
         <v>22345</v>
       </c>
       <c r="F523">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
         <v>15556</v>
       </c>
       <c r="F524">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
         <v>11883</v>
       </c>
       <c r="F525">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13154,7 +13154,7 @@
         <v>28502</v>
       </c>
       <c r="F526">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
         <v>6518</v>
       </c>
       <c r="F527">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
         <v>950962.01529999997</v>
       </c>
       <c r="F528">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
         <v>202004.21660000001</v>
       </c>
       <c r="F529">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
         <v>102013</v>
       </c>
       <c r="F530">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13259,7 +13259,7 @@
         <v>31509</v>
       </c>
       <c r="F531">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13280,7 +13280,7 @@
         <v>57865</v>
       </c>
       <c r="F532">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
         <v>9195</v>
       </c>
       <c r="F533">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
         <v>162683.5392</v>
       </c>
       <c r="F534">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
         <v>111984.59970000001</v>
       </c>
       <c r="F535">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13364,7 +13364,7 @@
         <v>2728976</v>
       </c>
       <c r="F536">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13385,7 +13385,7 @@
         <v>158309.55129999999</v>
       </c>
       <c r="F537">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13406,7 +13406,7 @@
         <v>194712.37650000001</v>
       </c>
       <c r="F538">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13427,7 +13427,7 @@
         <v>20604</v>
       </c>
       <c r="F539">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
         <v>43177.469400000002</v>
       </c>
       <c r="F540">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13469,7 +13469,7 @@
         <v>45078</v>
       </c>
       <c r="F541">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13490,7 +13490,7 @@
         <v>22164.530599999998</v>
       </c>
       <c r="F542">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
         <v>15897</v>
       </c>
       <c r="F543">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
         <v>24614</v>
       </c>
       <c r="F544">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13553,7 +13553,7 @@
         <v>4011</v>
       </c>
       <c r="F545">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13574,7 +13574,7 @@
         <v>50607</v>
       </c>
       <c r="F546">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
         <v>63517.0916</v>
       </c>
       <c r="F547">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
         <v>39167</v>
       </c>
       <c r="F548">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
         <v>16231</v>
       </c>
       <c r="F549">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
         <v>15855.9084</v>
       </c>
       <c r="F550">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
         <v>50453</v>
       </c>
       <c r="F551">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
         <v>14419.38</v>
       </c>
       <c r="F552">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
         <v>516774</v>
       </c>
       <c r="F553">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13742,7 +13742,7 @@
         <v>224432</v>
       </c>
       <c r="F554">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13763,7 +13763,7 @@
         <v>1439725</v>
       </c>
       <c r="F555">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
         <v>20661</v>
       </c>
       <c r="F556">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
         <v>323542</v>
       </c>
       <c r="F557">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13826,7 +13826,7 @@
         <v>913043</v>
       </c>
       <c r="F558">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
         <v>19097</v>
       </c>
       <c r="F559">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
         <v>62629</v>
       </c>
       <c r="F560">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13889,7 +13889,7 @@
         <v>49913.396000000001</v>
       </c>
       <c r="F561">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
